--- a/biology/Botanique/Hydrolea/Hydrolea.xlsx
+++ b/biology/Botanique/Hydrolea/Hydrolea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hydrolea est un genre d'herbacées ou de sous-arbrisseaux appartenant à la famille des Hydroleaceae, comptant 11-64 espèces, et dont l'espèce type est Hydrolea spinosa L..
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Flora Online (WFO)       (08 mai 2022)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Flora Online (WFO)       (08 mai 2022) :
 Hydrolea corymbosa Elliott
 Hydrolea elatior Schott
 Hydrolea floribunda Kotschy &amp; Peyr.
@@ -525,7 +539,7 @@
 Hydrolea spinosa L.
 Hydrolea uniflora Raf.
 Hydrolea zeylanica (L.) Vahl
-Selon GBIF       (08 mai 2022)[2] :
+Selon GBIF       (08 mai 2022) :
 Hydrolea brevistyla Verdc.
 Hydrolea corymbosa J.F.Macbr. ex Elliott
 Hydrolea depauperata Klotzsch
@@ -551,7 +565,7 @@
 Hydrolea zeylanica Linnaeus, 1767
 Reichelia angustifolia J.F.Gmel., 1792
 Steris javanica Christm.
-Selon Tropicos                                           (08 mai 2022)[1] :
+Selon Tropicos                                           (08 mai 2022) :
 Hydrolea affinis A. Gray, 1867
 Hydrolea albiflora (Chodat &amp; Hassl.) Brand, 1913
 Hydrolea angustifolia Cerv. ex Brand, 1913
@@ -582,7 +596,7 @@
 Hydrolea guineensis Choisy, 1834
 Hydrolea inermis Lour., 1790
 Hydrolea jamaicensis (L.) Raeusch., 1797
-Hydrolea javanica Blume, 1825 [1826]
+Hydrolea javanica Blume, 1825 
 Hydrolea latifolia Raf., 1832
 Hydrolea leptocaulis Featherm., 1871
 Hydrolea ludoviciana Featherm., 1871
